--- a/twotests.xlsx
+++ b/twotests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hywanae\OneDrive - HKUST Connect\Desktop\ct_timedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA09722E-3DCF-4207-9337-87BA7C0054C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6DA0E-9DC5-45FB-B0AA-2A270943A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="twotests" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:I22"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
